--- a/datf_core/test/s2t/s2t_21_mysql_csv_match.xlsx
+++ b/datf_core/test/s2t/s2t_21_mysql_csv_match.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\s2t\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\s2t\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB783AF-112F-43C8-A364-ECAB5755D862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9A32A4-A46D-43F0-AE18-76DB8746F497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="20490" windowHeight="10800" xr2:uid="{60D25328-0517-4E51-B966-9D3337769260}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{60D25328-0517-4E51-B966-9D3337769260}"/>
   </bookViews>
   <sheets>
     <sheet name="MappingConfiguration" sheetId="1" r:id="rId1"/>
@@ -314,9 +314,6 @@
     <t>,</t>
   </si>
   <si>
-    <t>/app/test/data/target</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t>HEALTHCARE_COVERAGE</t>
+  </si>
+  <si>
+    <t>test/data/target</t>
   </si>
 </sst>
 </file>
@@ -577,9 +577,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -617,7 +617,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -723,7 +723,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -865,7 +865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -922,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -938,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -946,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -954,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -962,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1000,7 +1000,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1030,7 +1030,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1038,7 +1038,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1086,7 +1086,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1124,7 +1124,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1349,13 +1349,13 @@
         <v>65</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1366,13 +1366,13 @@
         <v>65</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="5">
         <v>4</v>
@@ -1400,7 +1400,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="5">
         <v>5</v>
@@ -1417,7 +1417,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="5">
         <v>6</v>
@@ -1434,7 +1434,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
@@ -1451,7 +1451,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -1468,7 +1468,7 @@
         <v>65</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="5">
         <v>9</v>
@@ -1485,7 +1485,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
@@ -1502,7 +1502,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="5">
         <v>11</v>
@@ -1519,7 +1519,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="5">
         <v>12</v>
@@ -1536,7 +1536,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="5">
         <v>13</v>
@@ -1553,7 +1553,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="5">
         <v>14</v>
@@ -1570,7 +1570,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="5">
         <v>15</v>
@@ -1587,7 +1587,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="5">
         <v>16</v>
@@ -1604,7 +1604,7 @@
         <v>65</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="5">
         <v>17</v>
@@ -1621,7 +1621,7 @@
         <v>65</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" s="5">
         <v>18</v>
@@ -1638,7 +1638,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="5">
         <v>19</v>
@@ -1655,7 +1655,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="5">
         <v>20</v>
@@ -1672,7 +1672,7 @@
         <v>65</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="5">
         <v>21</v>
@@ -1689,13 +1689,13 @@
         <v>65</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="5">
         <v>22</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1706,13 +1706,13 @@
         <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="5">
         <v>23</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>65</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="5">
         <v>24</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1740,21 +1740,21 @@
         <v>65</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="5">
         <v>25</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>68</v>
@@ -1771,47 +1771,47 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="5">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C29" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="5">
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C30" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="5">
         <v>4</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C31" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" s="5">
         <v>5</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="5">
         <v>6</v>
@@ -1856,13 +1856,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="5">
         <v>7</v>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C34" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="5">
         <v>8</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C35" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="5">
         <v>9</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="5">
         <v>10</v>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C37" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="5">
         <v>11</v>
@@ -1941,13 +1941,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C38" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="5">
         <v>12</v>
@@ -1958,13 +1958,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C39" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="5">
         <v>13</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C40" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="5">
         <v>14</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C41" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="5">
         <v>15</v>
@@ -2009,13 +2009,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C42" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="5">
         <v>16</v>
@@ -2026,13 +2026,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C43" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D43" s="5">
         <v>17</v>
@@ -2043,13 +2043,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C44" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D44" s="5">
         <v>18</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C45" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="5">
         <v>19</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C46" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D46" s="5">
         <v>20</v>
@@ -2094,13 +2094,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="5">
         <v>21</v>
@@ -2111,70 +2111,70 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D48" s="5">
         <v>22</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D49" s="5">
         <v>23</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C50" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D50" s="5">
         <v>24</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C51" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" s="5">
         <v>25</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2205,13 +2205,13 @@
         <v>87</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53" s="5">
         <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2222,13 +2222,13 @@
         <v>87</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D54" s="5">
         <v>3</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>87</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D55" s="5">
         <v>4</v>
@@ -2256,7 +2256,7 @@
         <v>87</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D56" s="5">
         <v>5</v>
@@ -2273,7 +2273,7 @@
         <v>87</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D57" s="5">
         <v>6</v>
@@ -2290,7 +2290,7 @@
         <v>87</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D58" s="5">
         <v>7</v>
@@ -2307,7 +2307,7 @@
         <v>87</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D59" s="5">
         <v>8</v>
@@ -2324,7 +2324,7 @@
         <v>87</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D60" s="5">
         <v>9</v>
@@ -2341,7 +2341,7 @@
         <v>87</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D61" s="5">
         <v>10</v>
@@ -2358,7 +2358,7 @@
         <v>87</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D62" s="5">
         <v>11</v>
@@ -2375,7 +2375,7 @@
         <v>87</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D63" s="5">
         <v>12</v>
@@ -2392,7 +2392,7 @@
         <v>87</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D64" s="5">
         <v>13</v>
@@ -2409,7 +2409,7 @@
         <v>87</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" s="5">
         <v>14</v>
@@ -2426,7 +2426,7 @@
         <v>87</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D66" s="5">
         <v>15</v>
@@ -2443,7 +2443,7 @@
         <v>87</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D67" s="5">
         <v>16</v>
@@ -2460,7 +2460,7 @@
         <v>87</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68" s="5">
         <v>17</v>
@@ -2477,7 +2477,7 @@
         <v>87</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D69" s="5">
         <v>18</v>
@@ -2494,7 +2494,7 @@
         <v>87</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" s="5">
         <v>19</v>
@@ -2511,7 +2511,7 @@
         <v>87</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D71" s="5">
         <v>20</v>
@@ -2528,7 +2528,7 @@
         <v>87</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D72" s="5">
         <v>21</v>
@@ -2545,13 +2545,13 @@
         <v>87</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D73" s="5">
         <v>22</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2562,13 +2562,13 @@
         <v>87</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D74" s="5">
         <v>23</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2579,13 +2579,13 @@
         <v>87</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D75" s="5">
         <v>24</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2596,13 +2596,13 @@
         <v>87</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D76" s="5">
         <v>25</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2695,10 +2695,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -2727,13 +2727,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>64</v>
@@ -2742,7 +2742,7 @@
         <v>65</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>82</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>64</v>
@@ -2774,7 +2774,7 @@
         <v>65</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>82</v>
@@ -2791,13 +2791,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>64</v>
@@ -2806,7 +2806,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>82</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>64</v>
@@ -2838,7 +2838,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>82</v>
@@ -2855,13 +2855,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>64</v>
@@ -2870,7 +2870,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>82</v>
@@ -2887,13 +2887,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
@@ -2902,7 +2902,7 @@
         <v>65</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>82</v>
@@ -2919,13 +2919,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
@@ -2934,7 +2934,7 @@
         <v>65</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>82</v>
@@ -2951,13 +2951,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>64</v>
@@ -2966,7 +2966,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>82</v>
@@ -2983,13 +2983,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
@@ -2998,7 +2998,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>82</v>
@@ -3015,13 +3015,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
@@ -3030,7 +3030,7 @@
         <v>65</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>82</v>
@@ -3047,13 +3047,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
@@ -3062,7 +3062,7 @@
         <v>65</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>82</v>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>64</v>
@@ -3094,7 +3094,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>82</v>
@@ -3111,13 +3111,13 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>64</v>
@@ -3126,7 +3126,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>82</v>
@@ -3143,13 +3143,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>64</v>
@@ -3158,7 +3158,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>82</v>
@@ -3175,13 +3175,13 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>64</v>
@@ -3190,7 +3190,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>82</v>
@@ -3207,13 +3207,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>64</v>
@@ -3222,7 +3222,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>82</v>
@@ -3239,13 +3239,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>64</v>
@@ -3254,7 +3254,7 @@
         <v>65</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>82</v>
@@ -3271,13 +3271,13 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
@@ -3286,7 +3286,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>82</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>64</v>
@@ -3318,7 +3318,7 @@
         <v>65</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>82</v>
@@ -3335,13 +3335,13 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>64</v>
@@ -3350,7 +3350,7 @@
         <v>65</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>82</v>
@@ -3367,13 +3367,13 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>64</v>
@@ -3382,7 +3382,7 @@
         <v>65</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>82</v>
@@ -3399,13 +3399,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>64</v>
@@ -3414,7 +3414,7 @@
         <v>65</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>82</v>
@@ -3431,13 +3431,13 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>64</v>
@@ -3446,7 +3446,7 @@
         <v>65</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>82</v>
@@ -3463,13 +3463,13 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>64</v>
@@ -3478,7 +3478,7 @@
         <v>65</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>82</v>
@@ -5909,7 +5909,7 @@
         <v>87</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>64</v>
@@ -5918,7 +5918,7 @@
         <v>65</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>82</v>
@@ -5941,7 +5941,7 @@
         <v>87</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>64</v>
@@ -5950,7 +5950,7 @@
         <v>65</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>82</v>
@@ -5973,7 +5973,7 @@
         <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>64</v>
@@ -5982,7 +5982,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>82</v>
@@ -6005,7 +6005,7 @@
         <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>64</v>
@@ -6014,7 +6014,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>82</v>
@@ -6037,7 +6037,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>64</v>
@@ -6046,7 +6046,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>82</v>
@@ -6069,7 +6069,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
@@ -6078,7 +6078,7 @@
         <v>65</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>82</v>
@@ -6101,7 +6101,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
@@ -6110,7 +6110,7 @@
         <v>65</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>82</v>
@@ -6133,7 +6133,7 @@
         <v>87</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>64</v>
@@ -6142,7 +6142,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>82</v>
@@ -6165,7 +6165,7 @@
         <v>87</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
@@ -6174,7 +6174,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>82</v>
@@ -6197,7 +6197,7 @@
         <v>87</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
@@ -6206,7 +6206,7 @@
         <v>65</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>82</v>
@@ -6229,7 +6229,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
@@ -6238,7 +6238,7 @@
         <v>65</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>82</v>
@@ -6261,7 +6261,7 @@
         <v>87</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>64</v>
@@ -6270,7 +6270,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>82</v>
@@ -6293,7 +6293,7 @@
         <v>87</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>64</v>
@@ -6302,7 +6302,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>82</v>
@@ -6325,7 +6325,7 @@
         <v>87</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>64</v>
@@ -6334,7 +6334,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>82</v>
@@ -6357,7 +6357,7 @@
         <v>87</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>64</v>
@@ -6366,7 +6366,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>82</v>
@@ -6389,7 +6389,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>64</v>
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>82</v>
@@ -6421,7 +6421,7 @@
         <v>87</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>64</v>
@@ -6430,7 +6430,7 @@
         <v>65</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>82</v>
@@ -6453,7 +6453,7 @@
         <v>87</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
@@ -6462,7 +6462,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>82</v>
@@ -6485,7 +6485,7 @@
         <v>87</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>64</v>
@@ -6494,7 +6494,7 @@
         <v>65</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>82</v>
@@ -6517,7 +6517,7 @@
         <v>87</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>64</v>
@@ -6526,7 +6526,7 @@
         <v>65</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>82</v>
@@ -6549,7 +6549,7 @@
         <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>64</v>
@@ -6558,7 +6558,7 @@
         <v>65</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>82</v>
@@ -6581,7 +6581,7 @@
         <v>87</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>64</v>
@@ -6590,7 +6590,7 @@
         <v>65</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>82</v>
@@ -6613,7 +6613,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>64</v>
@@ -6622,7 +6622,7 @@
         <v>65</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>82</v>
@@ -6645,7 +6645,7 @@
         <v>87</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>64</v>
@@ -6654,7 +6654,7 @@
         <v>65</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>82</v>
